--- a/biology/Médecine/Henry_Stanley_Plummer/Henry_Stanley_Plummer.xlsx
+++ b/biology/Médecine/Henry_Stanley_Plummer/Henry_Stanley_Plummer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Henry Stanley Plummer, né le 3 mars 1874 à Hamilton, Minnesota et mort le 31 décembre 1936 à Rochester, Minnesota est un médecin et professeur américain. Interniste et endocrinologue de renom, il a joué un rôle majeur dans la fondation et l'épanouissement de la Mayo Clinic.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fils du Dr. Albert Plummer et Isabelle Steele, le jeune Henry voulait devenir ingénieur mais fut persuadé par son père de continuer la lignée familiale[1]. Il obtient ainsi son titre de médecin en 1898 à l'université Northwestern et débute sa pratique médicale avec son père dans la ville de Racine, Minnesota avant de s'associer à l'équipe de la Mayo Clinic en 1901. Il y devient chef du département de médecine interne, mais assume aussi des fonctions d'enseignant en qualité de professeur à la faculté de médecine du Minnesota.
-En 1936, il devient subitement malade et s'autodiagnostique une thrombose cérébrale avant de mourir quelques heures plus tard. Il a laissé derrière lui sa femme Daisy, une petite fille du Dr. Will Mayo, et 2 enfants adoptifs, Robert et Gertrude[2],[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils du Dr. Albert Plummer et Isabelle Steele, le jeune Henry voulait devenir ingénieur mais fut persuadé par son père de continuer la lignée familiale. Il obtient ainsi son titre de médecin en 1898 à l'université Northwestern et débute sa pratique médicale avec son père dans la ville de Racine, Minnesota avant de s'associer à l'équipe de la Mayo Clinic en 1901. Il y devient chef du département de médecine interne, mais assume aussi des fonctions d'enseignant en qualité de professeur à la faculté de médecine du Minnesota.
+En 1936, il devient subitement malade et s'autodiagnostique une thrombose cérébrale avant de mourir quelques heures plus tard. Il a laissé derrière lui sa femme Daisy, une petite fille du Dr. Will Mayo, et 2 enfants adoptifs, Robert et Gertrude,.
 Il est resté célèbre pour avoir été le concepteur du Plummer Building, qui s'élève toujours actuellement à Rochester et fait partie intégrante de la clinique qu'il a contribué à développer. 
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plummer a laissé son nom à divers signes cliniques et affections médicales[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plummer a laissé son nom à divers signes cliniques et affections médicales :
 Adénome de Plummer, maladie de Plummer : autre nom de l'adénome toxique de la glande thyroïde (ou goitre nodulaire toxique).
 Ongles de Plummer : onycholyse, notamment de l'annulaire, parfois observée en cas d'hyperthyroïdie, avec un aspect concave et déchiqueté du bord de l'ongle.
 Signe de Plummer : observé dans l'hyperthyroïdie, il s'agit d'une incapacité de se relever de la position assise due à une myopathie endocrinienne (dans les pays francophones, on parle plus volontiers de « signe du tabouret »).
